--- a/data/Covid19_infection_vax_No81.xlsx
+++ b/data/Covid19_infection_vax_No81.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88872606-5337-9549-B49A-AED180E1689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F271FB5-DCD1-A84B-B1BE-7A6C56387F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="520" windowWidth="30080" windowHeight="33340" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="4" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
   </bookViews>
   <sheets>
     <sheet name="感染_ワクチン" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="PDFデータ(No.80)" sheetId="5" r:id="rId6"/>
     <sheet name="PDFデータ(No.79) " sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1270,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C4F1B-109F-DD48-A686-124025DC4044}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -3751,8 +3751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF09E88-1556-0E42-B8BD-8ED352E3B918}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H65" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/data/Covid19_infection_vax_No81.xlsx
+++ b/data/Covid19_infection_vax_No81.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F271FB5-DCD1-A84B-B1BE-7A6C56387F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6720052A-2D9D-F74C-94A9-BB77A44D4E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="4" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
   </bookViews>
   <sheets>
     <sheet name="感染_ワクチン" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="91">
   <si>
     <t>10才未満</t>
     <phoneticPr fontId="1"/>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>https://www.mhlw.go.jp/content/10906000/000951849.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10601000/000961478.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1270,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C4F1B-109F-DD48-A686-124025DC4044}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1710,11 +1714,11 @@
         <v>16</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -1729,29 +1733,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="9" t="s">
         <v>83</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1764,6 +1771,7 @@
   <hyperlinks>
     <hyperlink ref="A17" r:id="rId1" xr:uid="{117F0302-1600-9D4C-B0E7-C5EB851BA047}"/>
     <hyperlink ref="A19" r:id="rId2" xr:uid="{BC7555DB-6076-8341-BFAE-96EF4D61AE15}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{E611B624-536A-0845-9A6E-AED9A17A66F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3751,7 +3759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF09E88-1556-0E42-B8BD-8ED352E3B918}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
